--- a/comparison.xlsx
+++ b/comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\williamwang\GitHub\WesternResidence\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20F548AF-858D-4EDA-A33A-7DD31573408E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C7300D9-846C-402C-AC8E-BFF2F507116A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,11 @@
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="38">
   <si>
     <r>
       <rPr>
@@ -304,16 +303,6 @@
         <rFont val="Tahoma"/>
         <family val="2"/>
       </rPr>
-      <t>In-Suite Washroom</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8.5"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
       <t>In-Suite Kitchen</t>
     </r>
   </si>
@@ -531,6 +520,9 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>In-Suite Washroom</t>
   </si>
 </sst>
 </file>
@@ -1096,7 +1088,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1292,153 +1284,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1486,6 +1331,156 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="6" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="5" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="4" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18762,8 +18757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18785,7 +18780,7 @@
   <sheetData>
     <row r="1" spans="1:17" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -18803,40 +18798,40 @@
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="63" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="115"/>
-      <c r="D2" s="118" t="s">
+      <c r="B2" s="65"/>
+      <c r="C2" s="66"/>
+      <c r="D2" s="69" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="121" t="s">
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="122"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="124" t="s">
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="M2" s="125"/>
-      <c r="N2" s="125"/>
-      <c r="O2" s="125"/>
-      <c r="P2" s="125"/>
+      <c r="M2" s="76"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="76"/>
+      <c r="P2" s="76"/>
       <c r="Q2" s="64" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:17" s="61" customFormat="1" ht="28.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="52"/>
-      <c r="B3" s="114"/>
-      <c r="C3" s="115"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="66"/>
       <c r="D3" s="53">
         <v>0</v>
       </c>
@@ -18880,22 +18875,22 @@
     </row>
     <row r="4" spans="1:17" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="116"/>
-      <c r="C4" s="117"/>
+      <c r="B4" s="67"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="126" t="s">
+      <c r="F4" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="127"/>
-      <c r="H4" s="128" t="s">
+      <c r="G4" s="78"/>
+      <c r="H4" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="129"/>
+      <c r="I4" s="80"/>
       <c r="J4" s="5" t="s">
         <v>7</v>
       </c>
@@ -18921,24 +18916,24 @@
     </row>
     <row r="5" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="81"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="10">
         <v>457</v>
       </c>
       <c r="E5" s="11">
         <v>613</v>
       </c>
-      <c r="F5" s="100">
+      <c r="F5" s="83">
         <v>1.252</v>
       </c>
-      <c r="G5" s="101"/>
-      <c r="H5" s="102">
+      <c r="G5" s="84"/>
+      <c r="H5" s="85">
         <v>231</v>
       </c>
-      <c r="I5" s="103"/>
+      <c r="I5" s="86"/>
       <c r="J5" s="11">
         <v>988</v>
       </c>
@@ -18964,7 +18959,7 @@
     </row>
     <row r="6" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="87" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="14" t="s">
@@ -18976,14 +18971,14 @@
       <c r="E6" s="16">
         <v>8.7249999999999996</v>
       </c>
-      <c r="F6" s="106">
+      <c r="F6" s="89">
         <v>8.7249999999999996</v>
       </c>
-      <c r="G6" s="107"/>
-      <c r="H6" s="108">
+      <c r="G6" s="90"/>
+      <c r="H6" s="91">
         <v>9.2899999999999991</v>
       </c>
-      <c r="I6" s="109"/>
+      <c r="I6" s="92"/>
       <c r="J6" s="17">
         <v>10.185</v>
       </c>
@@ -19006,12 +19001,12 @@
         <v>17</v>
       </c>
       <c r="Q6" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="22.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="105"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="14" t="s">
         <v>18</v>
       </c>
@@ -19021,14 +19016,14 @@
       <c r="E7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="110" t="s">
+      <c r="F7" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="111"/>
-      <c r="H7" s="112" t="s">
+      <c r="G7" s="94"/>
+      <c r="H7" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="113"/>
+      <c r="I7" s="96"/>
       <c r="J7" s="20" t="s">
         <v>20</v>
       </c>
@@ -19051,29 +19046,29 @@
         <v>10.855</v>
       </c>
       <c r="Q7" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="97" t="s">
         <v>21</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="98"/>
       <c r="D8" s="27">
         <v>6.25</v>
       </c>
       <c r="E8" s="28">
         <v>6.25</v>
       </c>
-      <c r="F8" s="96">
+      <c r="F8" s="99">
         <v>6.25</v>
       </c>
-      <c r="G8" s="97"/>
-      <c r="H8" s="92" t="s">
+      <c r="G8" s="100"/>
+      <c r="H8" s="101" t="s">
         <v>22</v>
       </c>
-      <c r="I8" s="93"/>
+      <c r="I8" s="102"/>
       <c r="J8" s="29">
         <v>6.25</v>
       </c>
@@ -19096,21 +19091,21 @@
         <v>6.25</v>
       </c>
       <c r="Q8" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="98" t="s">
+      <c r="B9" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="99"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="34"/>
       <c r="E9" s="35"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
-      <c r="H9" s="88"/>
-      <c r="I9" s="89"/>
+      <c r="F9" s="105"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="107"/>
+      <c r="I9" s="108"/>
       <c r="J9" s="35"/>
       <c r="K9" s="36"/>
       <c r="L9" s="34"/>
@@ -19118,20 +19113,22 @@
       <c r="N9" s="35"/>
       <c r="O9" s="35"/>
       <c r="P9" s="37"/>
-      <c r="Q9" s="3"/>
+      <c r="Q9" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="10" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
-      <c r="B10" s="94" t="s">
-        <v>24</v>
+      <c r="B10" s="130" t="s">
+        <v>37</v>
       </c>
-      <c r="C10" s="95"/>
+      <c r="C10" s="98"/>
       <c r="D10" s="38"/>
       <c r="E10" s="39"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="83"/>
+      <c r="F10" s="109"/>
+      <c r="G10" s="110"/>
+      <c r="H10" s="111"/>
+      <c r="I10" s="112"/>
       <c r="J10" s="39"/>
       <c r="K10" s="40"/>
       <c r="L10" s="38"/>
@@ -19139,20 +19136,22 @@
       <c r="N10" s="39"/>
       <c r="O10" s="39"/>
       <c r="P10" s="41"/>
-      <c r="Q10" s="3"/>
+      <c r="Q10" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="11" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
-      <c r="B11" s="80" t="s">
-        <v>25</v>
+      <c r="B11" s="81" t="s">
+        <v>24</v>
       </c>
-      <c r="C11" s="81"/>
+      <c r="C11" s="82"/>
       <c r="D11" s="34"/>
       <c r="E11" s="35"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="89"/>
+      <c r="F11" s="105"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="107"/>
+      <c r="I11" s="108"/>
       <c r="J11" s="35"/>
       <c r="K11" s="36"/>
       <c r="L11" s="34"/>
@@ -19160,67 +19159,69 @@
       <c r="N11" s="35"/>
       <c r="O11" s="35"/>
       <c r="P11" s="37"/>
-      <c r="Q11" s="3"/>
+      <c r="Q11" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
-      <c r="B12" s="84" t="s">
+      <c r="B12" s="113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="85"/>
-      <c r="D12" s="42" t="s">
+      <c r="E12" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="115" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="116"/>
+      <c r="H12" s="101" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="102"/>
+      <c r="J12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="K12" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="L12" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="M12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="O12" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="90" t="s">
+      <c r="P12" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="91"/>
-      <c r="H12" s="92" t="s">
-        <v>27</v>
-      </c>
-      <c r="I12" s="93"/>
-      <c r="J12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="K12" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="L12" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N12" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="O12" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="P12" s="46" t="s">
-        <v>28</v>
-      </c>
       <c r="Q12" s="62" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="84" t="s">
-        <v>29</v>
+      <c r="B13" s="113" t="s">
+        <v>28</v>
       </c>
-      <c r="C13" s="85"/>
+      <c r="C13" s="114"/>
       <c r="D13" s="34"/>
       <c r="E13" s="47">
         <v>3</v>
       </c>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="88"/>
-      <c r="I13" s="89"/>
+      <c r="F13" s="105"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="107"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="35"/>
       <c r="K13" s="36"/>
       <c r="L13" s="34"/>
@@ -19228,20 +19229,22 @@
       <c r="N13" s="35"/>
       <c r="O13" s="35"/>
       <c r="P13" s="37"/>
-      <c r="Q13" s="3"/>
+      <c r="Q13" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="14" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="80" t="s">
-        <v>30</v>
+      <c r="B14" s="81" t="s">
+        <v>29</v>
       </c>
-      <c r="C14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="38"/>
       <c r="E14" s="39"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="71"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="83"/>
+      <c r="F14" s="109"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="112"/>
       <c r="J14" s="39"/>
       <c r="K14" s="40"/>
       <c r="L14" s="38"/>
@@ -19249,20 +19252,22 @@
       <c r="N14" s="39"/>
       <c r="O14" s="39"/>
       <c r="P14" s="41"/>
-      <c r="Q14" s="3"/>
+      <c r="Q14" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="15" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="84" t="s">
-        <v>31</v>
+      <c r="B15" s="113" t="s">
+        <v>30</v>
       </c>
-      <c r="C15" s="85"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="34"/>
       <c r="E15" s="35"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="88"/>
-      <c r="I15" s="89"/>
+      <c r="F15" s="105"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="107"/>
+      <c r="I15" s="108"/>
       <c r="J15" s="35"/>
       <c r="K15" s="36"/>
       <c r="L15" s="34"/>
@@ -19270,22 +19275,24 @@
       <c r="N15" s="35"/>
       <c r="O15" s="35"/>
       <c r="P15" s="37"/>
-      <c r="Q15" s="3"/>
+      <c r="Q15" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="16" spans="1:17" ht="28.05" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
-      <c r="B16" s="68" t="s">
-        <v>32</v>
+      <c r="B16" s="120" t="s">
+        <v>31</v>
       </c>
-      <c r="C16" s="69"/>
+      <c r="C16" s="121"/>
       <c r="D16" s="38"/>
       <c r="E16" s="39"/>
-      <c r="F16" s="70"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="72">
+      <c r="F16" s="109"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="122">
         <v>4</v>
       </c>
-      <c r="I16" s="73"/>
+      <c r="I16" s="123"/>
       <c r="J16" s="39"/>
       <c r="K16" s="40"/>
       <c r="L16" s="38"/>
@@ -19293,20 +19300,22 @@
       <c r="N16" s="39"/>
       <c r="O16" s="39"/>
       <c r="P16" s="41"/>
-      <c r="Q16" s="3"/>
+      <c r="Q16" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="17" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="74" t="s">
-        <v>33</v>
+      <c r="B17" s="124" t="s">
+        <v>32</v>
       </c>
-      <c r="C17" s="75"/>
+      <c r="C17" s="125"/>
       <c r="D17" s="48"/>
       <c r="E17" s="49"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
-      <c r="I17" s="79"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="49"/>
       <c r="K17" s="50"/>
       <c r="L17" s="48"/>
@@ -19314,17 +19323,19 @@
       <c r="N17" s="49"/>
       <c r="O17" s="49"/>
       <c r="P17" s="51"/>
-      <c r="Q17" s="3"/>
+      <c r="Q17" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="18" spans="1:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="65" t="s">
-        <v>34</v>
+      <c r="A18" s="117" t="s">
+        <v>33</v>
       </c>
-      <c r="B18" s="66"/>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="118"/>
+      <c r="D18" s="118"/>
+      <c r="E18" s="118"/>
+      <c r="F18" s="118"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -19338,36 +19349,62 @@
       <c r="Q18" s="3"/>
     </row>
     <row r="19" spans="1:17" ht="53.7" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="66"/>
-      <c r="B19" s="66"/>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
+      <c r="A19" s="118"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
-      <c r="I19" s="67" t="s">
-        <v>35</v>
+      <c r="I19" s="119" t="s">
+        <v>34</v>
       </c>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
+      <c r="J19" s="119"/>
+      <c r="K19" s="119"/>
+      <c r="L19" s="119"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
     </row>
     <row r="20" spans="1:17" ht="409.05" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="21" spans="1:17" ht="66" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="B2:C4"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="H2:K2"/>
-    <mergeCell ref="L2:P2"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="A18:F19"/>
+    <mergeCell ref="I19:Q19"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="H5:I5"/>
@@ -19376,38 +19413,12 @@
     <mergeCell ref="H6:I6"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="A18:F19"/>
-    <mergeCell ref="I19:Q19"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="B2:C4"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="L2:P2"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="I19" r:id="rId1" display="https://residence.uwo.ca/buildings/firstyear_buildings/" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
